--- a/plasmidisodaata3.xlsx
+++ b/plasmidisodaata3.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
-    <t>1-Kan 2-Cmp 3-Cip 4-Tet</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -26,6 +23,9 @@
   </si>
   <si>
     <t>Resistance</t>
+  </si>
+  <si>
+    <t>1-Kan 2-Cam 3-Cip 4-Tet</t>
   </si>
 </sst>
 </file>
@@ -373,17 +373,17 @@
   <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -410,7 +410,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -426,7 +426,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -466,7 +466,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -618,7 +618,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
